--- a/vetelkedo.xlsx
+++ b/vetelkedo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novak_simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE30304F-F498-49A2-A7B2-0D8556930551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BF070-F80C-43DB-B2CB-945086FAE049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{1B696BDB-8C87-4AE9-BF3C-96B3EAEDCD4F}"/>
   </bookViews>
@@ -97,7 +97,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="mm\ &quot;p&quot;\ ss\ &quot;mp&quot;"/>
+    <numFmt numFmtId="165" formatCode="mm\ &quot;p&quot;\ ss\ &quot;mp&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,9 +149,9 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -187,7 +187,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -207,6 +207,38 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$5:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Kockák</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Solvers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ex-Cell</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hódítók</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yessssssss</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WoW</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Runtime terror</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lúúúzerek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Munka1!$I$5:$I$12</c:f>
@@ -242,7 +274,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-728F-4477-8EFA-5131D0D0A7BA}"/>
+              <c16:uniqueId val="{00000000-BC29-4606-8D74-DABA26F4F86F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -254,17 +286,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="627644911"/>
-        <c:axId val="531678559"/>
+        <c:gapWidth val="161"/>
+        <c:overlap val="10"/>
+        <c:axId val="743877280"/>
+        <c:axId val="740524080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627644911"/>
+        <c:axId val="743877280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -301,7 +335,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531678559"/>
+        <c:crossAx val="740524080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -309,10 +343,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531678559"/>
+        <c:axId val="740524080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -337,9 +370,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -363,7 +394,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627644911"/>
+        <c:crossAx val="743877280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -378,13 +409,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -967,29 +991,31 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
+        <xdr:cNvPr id="6" name="Diagram 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B28E0D-EF8E-445A-BFCF-3FA55CCEB7C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EAB21C-3A25-427B-9F90-0419A648BA22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1305,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618DDFF9-57D4-43D1-83A1-812FBEF1A1B6}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,11 +1445,11 @@
         <v>1.1689814814814814E-2</v>
       </c>
       <c r="H5" s="4">
-        <f>MAX(B5:G5)</f>
+        <f t="shared" ref="H5:H12" si="1">MAX(B5:G5)</f>
         <v>2.946759259259259E-2</v>
       </c>
       <c r="I5" s="5">
-        <f>SUM(Q15:V15)</f>
+        <f t="shared" ref="I5:I12" si="2">SUM(Q15:V15)</f>
         <v>93.86904761904762</v>
       </c>
     </row>
@@ -1450,11 +1476,11 @@
         <v>2.1388888888888888E-2</v>
       </c>
       <c r="H6" s="4">
-        <f>MAX(B6:G6)</f>
+        <f t="shared" si="1"/>
         <v>4.027777777777778E-2</v>
       </c>
       <c r="I6" s="5">
-        <f>SUM(Q16:V16)</f>
+        <f t="shared" si="2"/>
         <v>93.86904761904762</v>
       </c>
     </row>
@@ -1479,11 +1505,11 @@
         <v>1.8437499999999999E-2</v>
       </c>
       <c r="H7" s="4">
-        <f>MAX(B7:G7)</f>
+        <f t="shared" si="1"/>
         <v>3.9155092592592596E-2</v>
       </c>
       <c r="I7" s="5">
-        <f>SUM(Q17:V17)</f>
+        <f t="shared" si="2"/>
         <v>77.202380952380963</v>
       </c>
     </row>
@@ -1508,11 +1534,11 @@
         <v>2.3263888888888887E-3</v>
       </c>
       <c r="H8" s="4">
-        <f>MAX(B8:G8)</f>
+        <f t="shared" si="1"/>
         <v>2.9525462962962962E-2</v>
       </c>
       <c r="I8" s="5">
-        <f>SUM(Q18:V18)</f>
+        <f t="shared" si="2"/>
         <v>73.86904761904762</v>
       </c>
     </row>
@@ -1537,11 +1563,11 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4">
-        <f>MAX(B9:G9)</f>
+        <f t="shared" si="1"/>
         <v>3.3148148148148149E-2</v>
       </c>
       <c r="I9" s="5">
-        <f>SUM(Q19:V19)</f>
+        <f t="shared" si="2"/>
         <v>73.86904761904762</v>
       </c>
     </row>
@@ -1564,35 +1590,35 @@
         <v>9.8842592592592576E-3</v>
       </c>
       <c r="H10" s="4">
-        <f>MAX(B10:G10)</f>
+        <f t="shared" si="1"/>
         <v>2.4444444444444446E-2</v>
       </c>
       <c r="I10" s="5">
-        <f>SUM(Q20:V20)</f>
+        <f t="shared" si="2"/>
         <v>57.202380952380956</v>
       </c>
       <c r="Q10" s="2">
-        <f>COUNTBLANK(B5:B12)</f>
+        <f t="shared" ref="Q10:V10" si="3">COUNTBLANK(B5:B12)</f>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>COUNTBLANK(C5:C12)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S10" s="2">
-        <f>COUNTBLANK(D5:D12)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T10" s="2">
-        <f>COUNTBLANK(E5:E12)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10" s="2">
-        <f>COUNTBLANK(F5:F12)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="V10" s="2">
-        <f>COUNTBLANK(G5:G12)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1613,11 +1639,11 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4">
-        <f>MAX(B11:G11)</f>
+        <f t="shared" si="1"/>
         <v>3.7511574074074072E-2</v>
       </c>
       <c r="I11" s="5">
-        <f>SUM(Q21:V21)</f>
+        <f t="shared" si="2"/>
         <v>42.916666666666671</v>
       </c>
       <c r="Q11" s="2"/>
@@ -1644,11 +1670,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4">
-        <f>MAX(B12:G12)</f>
+        <f t="shared" si="1"/>
         <v>2.5706018518518517E-2</v>
       </c>
       <c r="I12" s="5">
-        <f>SUM(Q22:V22)</f>
+        <f t="shared" si="2"/>
         <v>37.202380952380956</v>
       </c>
       <c r="Q12" s="2"/>
@@ -1675,23 +1701,23 @@
         <v>8</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:G14" si="1">8-R10</f>
+        <f t="shared" ref="C14:G14" si="4">8-R10</f>
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="Q14" s="2"/>
@@ -1710,23 +1736,23 @@
         <v>2.6504629629629625E-3</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:G15" si="2">MIN(C5:C12)</f>
+        <f t="shared" ref="C15:G15" si="5">MIN(C5:C12)</f>
         <v>2.3495370370370371E-3</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.8634259259259261E-3</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0162037037037037E-2</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.3819444444444453E-3</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3263888888888887E-3</v>
       </c>
       <c r="Q15" s="6">
@@ -1734,23 +1760,23 @@
         <v>6.25</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15:V22" si="3">IF(ISBLANK(C5),0,C$3)</f>
+        <f t="shared" ref="R15:V22" si="6">IF(ISBLANK(C5),0,C$3)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -1759,207 +1785,207 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" ref="B16" si="4">INDEX($A5:$A12,MATCH(B15,B5:B12))</f>
+        <f t="shared" ref="B16" si="7">INDEX($A5:$A12,MATCH(B15,B5:B12))</f>
         <v>Solvers</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" ref="C16" si="5">INDEX($A5:$A12,MATCH(C15,C5:C12))</f>
+        <f t="shared" ref="C16" si="8">INDEX($A5:$A12,MATCH(C15,C5:C12))</f>
         <v>Hódítók</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" ref="D16" si="6">INDEX($A5:$A12,MATCH(D15,D5:D12))</f>
+        <f t="shared" ref="D16" si="9">INDEX($A5:$A12,MATCH(D15,D5:D12))</f>
         <v>Kockák</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" ref="E16" si="7">INDEX($A5:$A12,MATCH(E15,E5:E12))</f>
+        <f t="shared" ref="E16" si="10">INDEX($A5:$A12,MATCH(E15,E5:E12))</f>
         <v>Kockák</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" ref="F16" si="8">INDEX($A5:$A12,MATCH(F15,F5:F12))</f>
+        <f t="shared" ref="F16" si="11">INDEX($A5:$A12,MATCH(F15,F5:F12))</f>
         <v>Solvers</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" ref="C16:G16" si="9">INDEX($A5:$A12,MATCH(G15,G5:G12))</f>
+        <f t="shared" ref="G16" si="12">INDEX($A5:$A12,MATCH(G15,G5:G12))</f>
         <v>Hódítók</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" ref="Q16:Q22" si="10">IF(ISBLANK(B6),0,B$3)</f>
+        <f t="shared" ref="Q16:Q22" si="13">IF(ISBLANK(B6),0,B$3)</f>
         <v>6.25</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1971,5 +1997,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{742128C8-1ECE-457C-9D46-59CE14C624F6}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Munka1!A5:A5</xm:f>
+              <xm:sqref>I5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A6:A6</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A7:A7</xm:f>
+              <xm:sqref>I7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A8:A8</xm:f>
+              <xm:sqref>I8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A9:A9</xm:f>
+              <xm:sqref>I9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A10:A10</xm:f>
+              <xm:sqref>I10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A11:A11</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Munka1!A12:A12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/vetelkedo.xlsx
+++ b/vetelkedo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novak_simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BF070-F80C-43DB-B2CB-945086FAE049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585309F-4FAD-4312-96D4-6BDD37AFB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{1B696BDB-8C87-4AE9-BF3C-96B3EAEDCD4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1B696BDB-8C87-4AE9-BF3C-96B3EAEDCD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mm\ &quot;p&quot;\ ss\ &quot;mp&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="mm\ &quot;p&quot;\ ss\ &quot;mp&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -142,19 +142,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -189,7 +416,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19754680664916885"/>
+          <c:y val="4.1666666666666664E-2"/>
+          <c:w val="0.74004352580927379"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -207,6 +444,392 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ÉRTÉK]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>pont</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>pont (pontosvessző)</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-39C3-41B6-A4F4-A1F38EC7D3C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="_-* #\ ##0\ _F_t_-;\-* #\ ##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>pont (pontosvessző)</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:tx>
+                  <c:rich>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:fld id="{4C628CCC-F321-4C1D-A260-93F4F63F0ACA}" type="VALUE">
+                        <a:rPr lang="en-US"/>
+                        <a:pPr>
+                          <a:defRPr/>
+                        </a:pPr>
+                        <a:t>[ÉRTÉK]</a:t>
+                      </a:fld>
+                      <a:r>
+                        <a:rPr lang="en-US"/>
+                        <a:t>pont</a:t>
+                      </a:r>
+                    </a:p>
+                  </c:rich>
+                </c15:tx>
+                <c15:dlblFieldTable/>
+                <c15:showDataLabelsRange val="0"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Munka1!$A$5:$A$12</c:f>
@@ -363,7 +986,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #\ ##0\ _F_t_-;\-* #\ ##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0\ &quot;pont&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -413,7 +1036,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent3">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -993,16 +1619,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1331,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618DDFF9-57D4-43D1-83A1-812FBEF1A1B6}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,653 +1970,684 @@
     <col min="18" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>100</v>
       </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="19">
         <f>B2/B14</f>
         <v>6.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="19">
         <f t="shared" ref="C3:G3" si="0">C2/C14</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="19">
         <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="22">
         <v>1.0810185185185185E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="22">
         <v>2.946759259259259E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="22">
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="22">
         <v>1.0162037037037037E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="22">
         <v>2.3553240740740739E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="22">
         <v>1.1689814814814814E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="23">
         <f t="shared" ref="H5:H12" si="1">MAX(B5:G5)</f>
         <v>2.946759259259259E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="24">
         <f t="shared" ref="I5:I12" si="2">SUM(Q15:V15)</f>
         <v>93.86904761904762</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>2.6504629629629625E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>1.3483796296296298E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="11">
         <v>2.3472222222222217E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="11">
         <v>2.1388888888888888E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="13">
         <f t="shared" si="2"/>
         <v>93.86904761904762</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>3.5486111111111114E-2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="11">
         <v>1.2268518518518519E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
         <v>3.9155092592592596E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>1.8437499999999999E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>3.9155092592592596E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="13">
         <f t="shared" si="2"/>
         <v>77.202380952380963</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="11">
         <v>2.3495370370370371E-3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="11">
         <v>1.0254629629629629E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="11">
         <v>2.9525462962962962E-2</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
         <v>2.3263888888888887E-3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>2.9525462962962962E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>73.86904761904762</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <v>3.0219907407407407E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="11">
         <v>2.6493055555555558E-2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>1.0520833333333333E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="11">
         <v>3.3148148148148149E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="11">
         <v>2.2060185185185183E-2</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
         <f t="shared" si="1"/>
         <v>3.3148148148148149E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="13">
         <f t="shared" si="2"/>
         <v>73.86904761904762</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>8.7152777777777784E-3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>2.4444444444444446E-2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>1.2708333333333334E-2</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>9.8842592592592576E-3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>2.4444444444444446E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
         <v>57.202380952380956</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <f t="shared" ref="Q10:V10" si="3">COUNTBLANK(B5:B12)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <v>2.5347222222222219E-2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>2.34375E-2</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>3.7511574074074072E-2</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>3.7511574074074072E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="13">
         <f t="shared" si="2"/>
         <v>42.916666666666671</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="25">
         <v>6.4351851851851861E-3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="25">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25">
         <v>2.5706018518518517E-2</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>2.5706018518518517E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="27">
         <f t="shared" si="2"/>
         <v>37.202380952380956</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+    <row r="13" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="28">
         <f>8-Q10</f>
         <v>8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="28">
         <f t="shared" ref="C14:G14" si="4">8-R10</f>
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="28">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="28">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="28">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="29">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="14">
         <f>MIN(B5:B12)</f>
         <v>2.6504629629629625E-3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="14">
         <f t="shared" ref="C15:G15" si="5">MIN(C5:C12)</f>
         <v>2.3495370370370371E-3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <f t="shared" si="5"/>
         <v>1.8634259259259261E-3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <f t="shared" si="5"/>
         <v>1.0162037037037037E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <f t="shared" si="5"/>
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="30">
         <f t="shared" si="5"/>
         <v>2.3263888888888887E-3</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="Q15" s="2">
         <f>IF(ISBLANK(B5),0,B$3)</f>
         <v>6.25</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="2">
         <f t="shared" ref="R15:V22" si="6">IF(ISBLANK(C5),0,C$3)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" ref="B16" si="7">INDEX($A5:$A12,MATCH(B15,B5:B12))</f>
         <v>Solvers</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="16" t="str">
         <f t="shared" ref="C16" si="8">INDEX($A5:$A12,MATCH(C15,C5:C12))</f>
         <v>Hódítók</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="16" t="str">
         <f t="shared" ref="D16" si="9">INDEX($A5:$A12,MATCH(D15,D5:D12))</f>
         <v>Kockák</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="16" t="str">
         <f t="shared" ref="E16" si="10">INDEX($A5:$A12,MATCH(E15,E5:E12))</f>
         <v>Kockák</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="16" t="str">
         <f t="shared" ref="F16" si="11">INDEX($A5:$A12,MATCH(F15,F5:F12))</f>
         <v>Solvers</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="31" t="str">
         <f t="shared" ref="G16" si="12">INDEX($A5:$A12,MATCH(G15,G5:G12))</f>
         <v>Hódítók</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q22" si="13">IF(ISBLANK(B6),0,B$3)</f>
         <v>6.25</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q17" s="6">
+    <row r="17" spans="17:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q18" s="6">
+      <c r="Q18" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q19" s="6">
+      <c r="Q19" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q20" s="6">
+      <c r="Q20" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q21" s="6">
+      <c r="Q21" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q22" s="6">
+      <c r="Q22" s="2">
         <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="2">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="2">
         <f t="shared" si="6"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:I12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I12">
     <sortCondition descending="1" ref="I5:I12"/>
     <sortCondition ref="H5:H12"/>
   </sortState>
